--- a/StructureDefinition-ext-R5-DeviceUsage.adherence.xlsx
+++ b/StructureDefinition-ext-R5-DeviceUsage.adherence.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceUsage.adherence` 0..1 `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceUsage.adherence` is mapped to FHIR R4 structure `DeviceUseStatement`, but has no target element specified.</t>
+Element `DeviceUsage.adherence` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:DeviceUseStatement</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `DeviceUsage.adherence.code` is part of an existing definition because parent element `DeviceUsage.adherence` requires a cross-version extension.
-Element `DeviceUsage.adherence.code` is mapped to FHIR R4 structure `DeviceUseStatement`, but has no target element specified.</t>
+Element `DeviceUsage.adherence.code` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -425,7 +425,7 @@
   </si>
   <si>
     <t>Element `DeviceUsage.adherence.reason` is part of an existing definition because parent element `DeviceUsage.adherence` requires a cross-version extension.
-Element `DeviceUsage.adherence.reason` is mapped to FHIR R4 structure `DeviceUseStatement`, but has no target element specified.</t>
+Element `DeviceUsage.adherence.reason` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
   </si>
   <si>
     <t>Extension.extension:reason.id</t>
@@ -787,7 +787,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="128.21875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="147.578125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceUsage.adherence.xlsx
+++ b/StructureDefinition-ext-R5-DeviceUsage.adherence.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceUsage.adherence` 0..1 `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceUsage.adherence` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+Element `DeviceUsage.adherence` has a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `DeviceUsage.adherence.code` is part of an existing definition because parent element `DeviceUsage.adherence` requires a cross-version extension.
-Element `DeviceUsage.adherence.code` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+Element `DeviceUsage.adherence.code` has a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -389,6 +389,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.adherence.code</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -425,7 +428,7 @@
   </si>
   <si>
     <t>Element `DeviceUsage.adherence.reason` is part of an existing definition because parent element `DeviceUsage.adherence` requires a cross-version extension.
-Element `DeviceUsage.adherence.reason` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+Element `DeviceUsage.adherence.reason` has a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
   </si>
   <si>
     <t>Extension.extension:reason.id</t>
@@ -435,6 +438,9 @@
   </si>
   <si>
     <t>Extension.extension:reason.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.adherence.reason</t>
   </si>
   <si>
     <t>Extension.extension:reason.value[x]</t>
@@ -787,7 +793,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="147.578125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="141.59375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1593,7 +1599,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1635,7 +1641,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -1650,15 +1656,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1681,7 +1687,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1738,7 +1744,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1750,21 +1756,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1789,14 +1795,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1865,7 +1871,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -1968,7 +1974,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2073,7 +2079,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2116,7 +2122,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2158,7 +2164,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2173,15 +2179,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2204,13 +2210,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2261,7 +2267,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2273,18 +2279,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2366,7 +2372,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -2381,15 +2387,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2412,13 +2418,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2469,7 +2475,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2481,10 +2487,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-DeviceUsage.adherence.xlsx
+++ b/StructureDefinition-ext-R5-DeviceUsage.adherence.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-DeviceUsage.adherence.xlsx
+++ b/StructureDefinition-ext-R5-DeviceUsage.adherence.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -341,8 +341,7 @@
     <t>Type of adherence.</t>
   </si>
   <si>
-    <t>Element `DeviceUsage.adherence.code` is part of an existing definition because parent element `DeviceUsage.adherence` requires a cross-version extension.
-Element `DeviceUsage.adherence.code` has a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+    <t>Element `DeviceUsage.adherence.code` has a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -389,9 +388,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.adherence.code</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -408,6 +404,15 @@
 </t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for adherence</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-deviceusage-adherence-code-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -427,8 +432,7 @@
     <t>Reason for adherence type.</t>
   </si>
   <si>
-    <t>Element `DeviceUsage.adherence.reason` is part of an existing definition because parent element `DeviceUsage.adherence` requires a cross-version extension.
-Element `DeviceUsage.adherence.reason` has a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+    <t>Element `DeviceUsage.adherence.reason` has a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
   </si>
   <si>
     <t>Extension.extension:reason.id</t>
@@ -440,10 +444,13 @@
     <t>Extension.extension:reason.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.adherence.reason</t>
-  </si>
-  <si>
     <t>Extension.extension:reason.value[x]</t>
+  </si>
+  <si>
+    <t>Codes for adherence reason</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-deviceusage-adherence-reason-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>base64Binary
@@ -803,8 +810,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="23.46875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="78.7734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1599,72 +1606,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1687,7 +1694,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1720,13 +1727,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1744,7 +1751,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1756,21 +1763,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1795,14 +1802,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1871,7 +1878,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -1974,7 +1981,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2079,7 +2086,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2122,7 +2129,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2164,30 +2171,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2210,13 +2217,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2243,13 +2250,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2267,7 +2274,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2279,18 +2286,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2372,30 +2379,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2418,13 +2425,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2475,7 +2482,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2487,10 +2494,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
